--- a/files/위치 데이터/장소위치정보빈도수.xlsx
+++ b/files/위치 데이터/장소위치정보빈도수.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
@@ -457,37 +457,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>제주도</t>
+          <t>환상의 섬 Jeju Island</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>환상의 섬 Jeju Island</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>제주어린왕자감귤밭</t>
+          <t>제주도 서귀포</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -497,317 +497,317 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>제주도 제주시</t>
+          <t>제주어린왕자감귤밭</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>월정리해변</t>
+          <t>제주도 제주시</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>제주도 Jeju Island</t>
+          <t>월정리해변</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>동백포레스트</t>
+          <t>Jeju Island</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>잔물결</t>
+          <t>Jeju Island, South Korea 제주도</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>신창풍차해안도로</t>
+          <t>제주도 Jeju Island</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>금능해변</t>
+          <t>Seogwipo, Jeju Island, South Korea</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>광치기해변</t>
+          <t>제주맛집</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>당근말밥 제주</t>
+          <t>제주에인감귤밭</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>숙성도 중문점</t>
+          <t>카페 노티드 제주 애월 - Cafe Knotted Jeju Aewol</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>제주도 김녕해수욕장</t>
+          <t>wiee.jeju</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Jeju Island, Korea</t>
+          <t>동백포레스트</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>아르떼뮤지엄 Arte Museum</t>
+          <t>금능해변</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>스누피가든</t>
+          <t>신창풍차해안도로</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>로드129</t>
+          <t>제주 구좌읍 세화리</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>제주공항</t>
+          <t>제주시청에서</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jeju Island, South Korea 제주도</t>
+          <t>Terarosa - 테라로사</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>LOTTE HOTEL JEJU 롯데호텔제주</t>
+          <t>제주시 조천읍 선흘리</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>애월읍 장전리</t>
+          <t>제주도 곽지해수욕장</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Busan 釜山, South Korea</t>
+          <t>제주시 아라동</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>행・복・한・우・리・집</t>
+          <t>제주도 표선</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>서귀포</t>
+          <t>로드129</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Seogwipo, Jeju Island, South Korea</t>
+          <t>미깡창고</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Jeju Island</t>
+          <t>제주도 김녕해수욕장</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>환상의섬 제주</t>
+          <t>풀베개</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>애월더선셋</t>
+          <t>휴일로</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>카페 노티드 제주 애월 - Cafe Knotted Jeju Aewol</t>
+          <t>피규어뮤지엄제주</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>제주도 서귀포</t>
+          <t>제주도 우도</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>델문도 제주 카페 Cafe Delmoondo</t>
+          <t>제주담공방</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>제주도, Jeju</t>
+          <t>함덕해수욕장</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>포도뮤지엄</t>
+          <t>푸른섬 제주도</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -817,763 +817,763 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>루페이퍼 Rupaper</t>
+          <t>어린왕자감귤밭</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>제주에인감귤밭</t>
+          <t>제주도애월해안로</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>수두리보말칼국수</t>
+          <t>제주공항근처</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>감사감사감사하고 사랑사랑사랑합니다</t>
+          <t>애월더선셋</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>불특정식당</t>
+          <t>구좌읍 평대리</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>친봉산장 DeerLodge</t>
+          <t>올댓커피</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>담백</t>
+          <t>문쏘</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>성산읍 신산리</t>
+          <t>제주냥이</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>풀베개</t>
+          <t>제주 협재 해수욕장</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>메로왕</t>
+          <t>제주</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>월령리 선인장군락 (Cactus Colony of Wollyeong-ri)</t>
+          <t>Jeju Island, Korea</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>황우지해안</t>
+          <t>단소</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Oedolgae Jeju</t>
+          <t>연 과자점</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>엉알해안</t>
+          <t>라온베이커리 남녕점</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>리므 에스프레소 바</t>
+          <t>아르떼뮤지엄 Arte Museum</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>위미항 (Wimi Fishing Port)</t>
+          <t>오설록티뮤지엄</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>랜디스도넛</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>푸른섬 제주도</t>
+          <t>대박이네</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>고토커피바</t>
+          <t>동문시장 Dongmoon Market 東門水産市場</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>면뽑는선생만두빚는아내</t>
+          <t>외도동</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>이드레국수</t>
+          <t>컴플렉스</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>제주 장인의집</t>
+          <t>제주곶자왈도립공원</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>제주</t>
+          <t>그러므로part.2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>소노캄 제주</t>
+          <t>JIVAL</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>순옥이네명가</t>
+          <t>환상의섬 제주</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>일통이반</t>
+          <t>Amber Purehill Hotels&amp;Resorts</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>대손가</t>
+          <t>스틸네거티브클럽</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>제주 맛나식당</t>
+          <t>화산2020</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>명품순두부</t>
+          <t>덴드리</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>516도로 마방목지</t>
+          <t>제주도 세화해변</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>제주한면가 濟州韓麵家</t>
+          <t>애월해안도로</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>협재솥</t>
+          <t>표선해수욕장</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>송악산 둘레길</t>
+          <t>잔물결</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>노형동</t>
+          <t>서귀포</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>식당 마요네즈</t>
+          <t>남원읍</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>평대 Berlin</t>
+          <t>포도뮤지엄</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Fukuoka-shi, Fukuoka, Japan</t>
+          <t>카페 Uda</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>방이먹자골목</t>
+          <t>제주시, Jeju</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>섭지코지 (Seopjikoji)</t>
+          <t>제주공항</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>닭머르</t>
+          <t>파르나스 호텔 제주</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>서귀포시</t>
+          <t>살롱하임연동점</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>곽지해수욕장</t>
+          <t>Jeju</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>황우해안 선녀탕</t>
+          <t>제주 올레리조트</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>U-Do Island, Jeju</t>
+          <t>휴애리 자연생활공원</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>제주도 우도</t>
+          <t>제주동쪽</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>제주 우도</t>
+          <t>제주시</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>제주도 세화해변</t>
+          <t>제주도 서귀포시 성산읍</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>심심해</t>
+          <t>이호테우해변</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Liquor Burger</t>
+          <t>제주 무릉리</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>게슈탈트 커피 제주</t>
+          <t>Longlive</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>제주동쪽</t>
+          <t>하나의식탁</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>구엄리 돌염전</t>
+          <t>한라산 1100고지</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>빛의 벙커 Bunker des Lumières</t>
+          <t>본가 장수촌</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>아라리오뮤지엄 제주</t>
+          <t>제주게토</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>한라산 영실코스</t>
+          <t>Busan 釜山, South Korea</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>금능해수욕장</t>
+          <t>제주시차</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>블루메베이글</t>
+          <t>전라남도 순천</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Ocean View</t>
+          <t>부산</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>동복리</t>
+          <t>새별오름</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>제주담공방</t>
+          <t>Bake shirts</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>안양일번가</t>
+          <t>Next door</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>파르나스 호텔 제주</t>
+          <t>광치기해변</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>사수항</t>
+          <t>제주여행</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>제주 가파도</t>
+          <t>제주시연동</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>중문관광단지 (Jungmun Tourism Complex)</t>
+          <t>행・복・한・우・리・집</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>화북항</t>
+          <t>제주도 구좌읍</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>제주바다</t>
+          <t>흙먹는고양이</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>빽다방베이커리제주사수본점</t>
+          <t>앙뚜아네트용담점</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>도두동 무지개 해안도로</t>
+          <t>한라드블랑</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>제주도 곽지해수욕장</t>
+          <t>보내다제주</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>구아우쇼콜라</t>
+          <t>제주 남원리</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>애월읍 하귀1리</t>
+          <t>Daegu, South Korea</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>카페 오늘의바다</t>
+          <t>델문도 제주 카페 Cafe Delmoondo</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>서울 - Seoul</t>
+          <t>오마이살롱</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Hyeopjae Sunset Beach</t>
+          <t>제주 노형수퍼마켙</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>표선해수욕장</t>
+          <t>제주 마노카페</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1583,7 +1583,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>우도잠수함</t>
+          <t>한거리푸줏간</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1593,7 +1593,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>표선 해비치해수욕장</t>
+          <t>선흘리 동백동산</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1603,7 +1603,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>제주 한라산 영실코스</t>
+          <t>와플대학 Waffle Univ.</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1613,7 +1613,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>흙먹는고양이</t>
+          <t>문도지 오름</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1623,7 +1623,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>동문시장 Dongmoon Market 東門水産市場</t>
+          <t>제주 스위스마을 - Swiss Village</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1633,7 +1633,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Jungmun Beach</t>
+          <t>닻</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1643,7 +1643,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>용담해안도로</t>
+          <t>Grand Josun Jeju - 그랜드 조선 제주</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1653,7 +1653,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>함덕해수욕장</t>
+          <t>한성식당</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1663,7 +1663,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>제주버스터미널</t>
+          <t>오리정</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1673,7 +1673,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>카페 더 콘테나</t>
+          <t>세광양대창</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1683,7 +1683,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Hidden Cliff / 히든 클리프</t>
+          <t>비지곳식당</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1693,7 +1693,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>앙뚜아네트용담점</t>
+          <t>우동 카덴</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1703,7 +1703,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>미스틱 3도</t>
+          <t>숙성도</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1713,7 +1713,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>미깡창고</t>
+          <t>우도잠수함</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1723,7 +1723,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>토평동</t>
+          <t>Jeju Aewol</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1733,7 +1733,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>제주 성산읍</t>
+          <t>제주도 제주특별시</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1743,7 +1743,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>Two hundred 투헌드레드</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1753,7 +1753,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>한라산 1100고지</t>
+          <t>바닐라파레트</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1763,7 +1763,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>화산2020</t>
+          <t>Ecc</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1773,7 +1773,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>유탑유블레스호텔 제주</t>
+          <t>Cafe yuzu 카페유주</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1783,7 +1783,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>어린왕자감귤밭</t>
+          <t>Cebu, Philippines</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1793,7 +1793,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>제주 구좌읍 세화리</t>
+          <t>1wol_studio</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1803,7 +1803,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>제주도 귤밭</t>
+          <t>애월</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1813,7 +1813,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>휴일로</t>
+          <t>lemonmuseum_jeju</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1823,7 +1823,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>아주르블루</t>
+          <t>롯데월드몰</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1833,7 +1833,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>제주시연동</t>
+          <t>모알보알</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1843,7 +1843,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>제주 조천 북촌리</t>
+          <t>당근말밥 제주</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1853,7 +1853,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>조천읍</t>
+          <t>차귀도 앞바다</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1863,7 +1863,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Terarosa - 테라로사</t>
+          <t>천지연폭포</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1873,7 +1873,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>제주도 마마롱</t>
+          <t>서귀포 리틀포레스트</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1883,7 +1883,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Jeju Island - South Korea</t>
+          <t>올망 - Olmang</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1893,7 +1893,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>wiee.jeju</t>
+          <t>Cafè 새빌</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1903,7 +1903,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>제주 지미봉</t>
+          <t>사계바다</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1913,7 +1913,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>대전서구문화원</t>
+          <t>제주도 함덕해수욕장</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1923,7 +1923,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Complete Coffee</t>
+          <t>카페치즈태비</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1933,7 +1933,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>제주 노형수퍼마켙</t>
+          <t>성수동</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1943,7 +1943,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>제주시청 근처</t>
+          <t>제주도 한림</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1953,7 +1953,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>서귀포시 대정읍</t>
+          <t>트라인커피</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1963,7 +1963,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>제주동백수목원</t>
+          <t>제주 애월</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1973,7 +1973,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>이호테우해변</t>
+          <t>제주도 하도리</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1983,7 +1983,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>규태네 양곱창</t>
+          <t>서귀포 매일올레시장</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1993,7 +1993,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>버터모닝</t>
+          <t>제주 해안도로</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2003,7 +2003,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>시현하다.</t>
+          <t>우연히, 그 곳</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2013,7 +2013,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>아트서커스_제주</t>
+          <t>마마뜰</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2023,7 +2023,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>사이카레</t>
+          <t>카페 2085</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2033,7 +2033,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>제주냥이</t>
+          <t>서귀포 신시가지</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2043,7 +2043,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Grand Hyatt Jeju</t>
+          <t>제3공간</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2053,7 +2053,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>연대포구</t>
+          <t>위즈커피</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2063,7 +2063,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>제주도공항</t>
+          <t>카페 조아찌 - Joazzi</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2073,7 +2073,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>블루오션차귀도요트</t>
+          <t>효돈마을</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2083,7 +2083,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>제주게토</t>
+          <t>La Tortuga</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2093,7 +2093,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Amber Purehill Hotels&amp;Resorts</t>
+          <t>충청북도 청주</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2103,7 +2103,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>제주 올레리조트</t>
+          <t>연남동 연트럴파크 YeontralPark, Mapogu yeonnamdong hongdae, Seoul Korea</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2113,7 +2113,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Cebu, Philippines</t>
+          <t>오늘의감정오감</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2123,7 +2123,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>전포카페거리 전리단길 전포사잇길</t>
+          <t>하와이안비치카페</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2133,7 +2133,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>제주도 한림</t>
+          <t>서홍정원</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2143,7 +2143,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>김포공항 Gimpo International Airport 金浦国际机场</t>
+          <t>Patisserie Moang</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2153,7 +2153,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>바이러닉 스튜디오</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2163,7 +2163,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Daegu, South Korea</t>
+          <t>제주돌창고</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2173,7 +2173,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>고요새</t>
+          <t>달책빵</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2183,7 +2183,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>제주도 제주시 조천읍 선흘리</t>
+          <t>불을품은닭</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2193,7 +2193,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>카페치즈태비</t>
+          <t>제주한림읍</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2203,7 +2203,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>금악오름</t>
+          <t>한림 뽈살집</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2213,7 +2213,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Gongbech.공백</t>
+          <t>사수항</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2223,7 +2223,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>서울 - Seoul</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2233,7 +2233,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>고속터미널 Gangnam Goto Mall</t>
+          <t>카페 오늘의바다</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2243,7 +2243,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Yeosu South Korea</t>
+          <t>애월읍 하귀1리</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2253,7 +2253,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>제주숨도</t>
+          <t>섭지코지 (Seopjikoji)</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2263,7 +2263,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>방주교회</t>
+          <t>도두동 무지개 해안도로</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2273,7 +2273,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>제주 애월</t>
+          <t>빽다방베이커리제주사수본점</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2283,7 +2283,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>제주 고내리</t>
+          <t>제주바다</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2293,7 +2293,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>모슬포</t>
+          <t>화북항</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2303,7 +2303,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>크래커스커피 한경점 Crackers Coffee</t>
+          <t>중문관광단지 (Jungmun Tourism Complex)</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2313,7 +2313,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>제주 협재 해수욕장</t>
+          <t>닭머르</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2323,7 +2323,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>덴드리</t>
+          <t>제주 맛나식당</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2333,7 +2333,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>무로이</t>
+          <t>소노캄 제주</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2343,7 +2343,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Hamdeok Jeju</t>
+          <t>위미항 (Wimi Fishing Port)</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2353,7 +2353,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>엉알해안</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2363,7 +2363,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>마음에 온</t>
+          <t>Oedolgae Jeju</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2373,7 +2373,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>파스테이스</t>
+          <t>황우지해안</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2383,7 +2383,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>볼수록 기분좋아지는 페이지</t>
+          <t>월령리 선인장군락 (Cactus Colony of Wollyeong-ri)</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2393,7 +2393,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>시월의리브라</t>
+          <t>황금어장</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2403,7 +2403,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>니모메빈티지라운지</t>
+          <t>수복강녕</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2413,7 +2413,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>너븐</t>
+          <t>분식후경</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2423,7 +2423,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>제주공항근처</t>
+          <t>Hyeopjae Sunset Beach</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2433,7 +2433,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>제주탑동골목</t>
+          <t>표선 해비치해수욕장</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2443,7 +2443,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>제주비엔날레 Jeju Biennale</t>
+          <t>제주 한라산 영실코스</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2453,7 +2453,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>D&amp;department JEJU by Arario</t>
+          <t>Jungmun Beach</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2463,7 +2463,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>윗세오름(해발 1700M)</t>
+          <t>동복리</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2473,7 +2473,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Bearpine coffee</t>
+          <t>Ocean View</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2483,7 +2483,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>아베크아롬</t>
+          <t>블루메베이글</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2493,7 +2493,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>고양시</t>
+          <t>금능해수욕장</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2503,7 +2503,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>제주시</t>
+          <t>한라산 영실코스</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2513,7 +2513,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>영국찻집</t>
+          <t>아라리오뮤지엄 제주</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2523,7 +2523,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>인디고인디드</t>
+          <t>빛의 벙커 Bunker des Lumières</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2533,7 +2533,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Umu Pudding , 우무</t>
+          <t>구엄리 돌염전</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2543,7 +2543,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>성수동</t>
+          <t>게슈탈트 커피 제주</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2553,7 +2553,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Two hundred 투헌드레드</t>
+          <t>Liquor Burger</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2563,10 +2563,2300 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
+          <t>심심해</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>제주 우도</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>U-Do Island, Jeju</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>황우해안 선녀탕</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>곽지해수욕장</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>안양일번가</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>서귀포시</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>제주 가파도</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>용담해안도로</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>삼무곱창흑돼지강남점</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>고씨네천지국수</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>올래국수</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>우정회센타</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>보정동 까페거리</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>명단 제주시점</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>싸이공레시피</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>송당리</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>서귀포시 남원읍 위미리</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>제주시 외도동</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>미도리 제주</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>충청남도 서산</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>양가형제</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>곰막 횟집</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>Dart shop SHOT</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>수목원길 야시장</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>안덕면 사계리</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>성산일출봉 Seongsan Sunrise Peak</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>다랑쉬오름</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>스카이 온 파이브 다이닝 Sky on 5 Dining</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>곱창전문점 곱 제주점</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>주야진</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>논짓물식당</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>마담나탈리소셜클럽</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>경상남도 김해</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>김녕 성세기 해변</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>제주신화월드 Jeju Shinhwa World</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>홍당무 떡볶이</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>올드캡 OLD CAP</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>법환동</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>협재해변 Beach</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>Myeong-dong</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>서귀포 법환포구</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>맛집</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>요리음식점 현 玄</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>협재칼국수</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>오쿠다</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>제주김만복</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>삼화지구</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>한라산국립공원</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>고부루비어컴퍼니</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>협재솥</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>판포포구</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>All that JEJU (올댓제주)</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>아카렌가</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>모던뽀이</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>성산일출봉 城山日出峰  Seongsan Ilchulbong</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>지젤피트니스클럽화명점</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>더문에스테틱</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>무무제주, mumu</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>사이카레</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>무운</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>인생밥집</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>성읍2리</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>카페텐저린</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>목포역</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>슈언니 마카롱</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>mongcage_coffee</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>토끼썸</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>사분의일</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>Jeju Glass Museum</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>고스란</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>스콘가게끌림</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>세화숲</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>산양큰엉곶</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>미닝</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>한동리 바다</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>소길별하</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>머체왓숲길</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>토평동</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>시현하다.</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>Jeju Island - South Korea</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>Hidden Cliff / 히든 클리프</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>대전서구문화원</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>블루오션차귀도요트</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>제주도공항</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>연대포구</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>Grand Hyatt Jeju</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>아트서커스_제주</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>버터모닝</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>Umu Pudding , 우무</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>규태네 양곱창</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>서귀포시 대정읍</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>제주시청 근처</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>제주도맛집</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>서울앵무새</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>프레젠트</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>우리들cc</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>춘심이네 오메기떡</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>사진놀이터</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>제동목장</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>큰손상회</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>송악산</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>이호테우 목마등대</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>남포동</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>중앙동</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>King's Gym</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>Onzé 온제</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>미남미녀</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>와인터널</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>Innisfree Jejuhouse</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>명리동식당구좌점</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>제주곳집</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>미카의달콤한작업실</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>제주도 산방산근처</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>Jeju Island 제주특별자치도 济州道</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>슬기식당</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>성산읍</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>연남동</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>제주풀무질</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>646mps ㅣ 제주,바람,낭만. 그곳에 숙소</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>렌소이스</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>모이소</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>Cafe Ri</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>제주영어교육도시</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>바람이풀에그림그린날</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>제주시 구좌읍 한동리</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>퍼플모스 Purple Moss</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>오누박스게스트하우스</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>성산일출봉</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>그리다앤쿡</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>서귀포  서호동</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>무로이</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>The Shilla Jeju</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>유우스테이</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>동광의계절</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>테라도스</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>너랑나랑게스트하우스</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>그리스신화박물관  &amp; 트릭아이미술관</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>중문칠돈가</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>미스틱 3도</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>제주 성산읍</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>마틸다</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>폴카페</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>콜린 제주</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>강정동 블루빌딩</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>소사오름</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>신불당동</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>The Retrieve</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>건입동</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>후쿠오카 텐진</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>제주썬호텔&amp;카지노 / Jeju Sun Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>보래드베이커스</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>오사카</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>해비치호텔&amp;리조트 - Haevichi hotel &amp; resort</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>애월읍 장전리</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>제주 카페더콘테나</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>고요새</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>레이지펌프</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>lavarr.jeju</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>제주 현대미술관</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>엘파소</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>레스빠스 제주점</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>샬로우커피</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>유탑유블레스호텔 제주</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>바미아일랜드</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>제주시 칠성로</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>제주바솔트</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>Jeju Island,  Korea</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>제주도 한경면</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>꽃향유</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>숲숲카페</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>그린마일커피 애월점 Greenmile Coffee Aewol</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>정방폭포</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>카페 사분의일</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>채점석베이커리</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>Jeju Korea</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>파스테이스</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>제주시 이도이동</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>친봉산장 DeerLodge</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>제주도 가시리</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>부산 금정구 남산동</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>北海道札幌市</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>제주 구좌읍</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>모슬포</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>뽀로로앤타요 테마파크 제주</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>골목카페 옥수</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>페어리제주 바다뷰가 이쁜 제주 힐링카페</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>서귀피안 베이커리 서귀포 - Seogwipean Bakery Seogwipo</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>홍대입구역</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>세부</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>Yufuin, Oita, Japan</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>달달한구</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>취다선리조트</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>제주 그 밤</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>에어그라운드</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>소길다방</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>JINJU the orange farm - สวนส้มจินจู</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>수월봉</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>파더스가든</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>디앤디파트먼트 제주</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>협재해수욕장</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>아주르블루</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>제주도 귤밭</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>숙성도 중문점</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>Jeju Aqua Planet</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>오하효</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>제주도 마마롱</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>제주 함덕카페 라라떼</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>성수동카페거리</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>1100고지 경치 좋은 곳</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>텔레스코프</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>베케</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>D&amp;department JEJU by Arario</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>Palgil</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>제주도 유채꽃밭</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>Gongbech.공백</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>프랑크푸르트암마인</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>Jeju, Korea</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>번네식당</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>너븐</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>커피템플 - Jeju</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>테라로사</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>유니호텔제주</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>JONAS</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>양과자회관</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
           <t>구엄리돌염전</t>
         </is>
       </c>
-      <c r="B214" t="n">
+      <c r="B443" t="n">
         <v>1</v>
       </c>
     </row>
